--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_20-28.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_20-28.xlsx
@@ -447,6 +447,9 @@
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>ماسك جلسات اطفال</t>
   </si>
   <si>
     <t>ماكينه حلاقه افوفا 5 قطع</t>
@@ -3909,13 +3912,13 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
@@ -3935,13 +3938,13 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
@@ -3961,17 +3964,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -3987,17 +3990,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4005,7 +4008,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4013,17 +4016,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4039,17 +4042,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4065,13 +4068,13 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10">
@@ -4083,7 +4086,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4091,13 +4094,13 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10">
@@ -4117,51 +4120,77 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="122" ht="26.25" customHeight="1">
-      <c r="K122" s="11">
-        <v>6886.4399999999996</v>
-      </c>
-      <c r="L122" s="11"/>
-      <c r="M122" s="11"/>
-      <c r="N122" s="11"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="12">
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="6">
+        <v>119</v>
+      </c>
+      <c t="s" r="B122" s="7">
         <v>157</v>
       </c>
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-      <c t="s" r="F123" s="13">
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c t="s" r="H122" s="8">
+        <v>50</v>
+      </c>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="9">
+        <v>30</v>
+      </c>
+      <c r="M122" s="9"/>
+      <c r="N122" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" ht="25.5" customHeight="1">
+      <c r="K123" s="11">
+        <v>6906.4399999999996</v>
+      </c>
+      <c r="L123" s="11"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="11"/>
+    </row>
+    <row r="124" ht="17.25" customHeight="1">
+      <c t="s" r="A124" s="12">
         <v>158</v>
       </c>
-      <c r="G123" s="13"/>
-      <c r="H123" s="14"/>
-      <c t="s" r="I123" s="15">
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c t="s" r="F124" s="13">
         <v>159</v>
       </c>
-      <c r="J123" s="15"/>
-      <c r="K123" s="15"/>
-      <c r="L123" s="15"/>
-      <c r="M123" s="15"/>
-      <c r="N123" s="15"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="14"/>
+      <c t="s" r="I124" s="15">
+        <v>160</v>
+      </c>
+      <c r="J124" s="15"/>
+      <c r="K124" s="15"/>
+      <c r="L124" s="15"/>
+      <c r="M124" s="15"/>
+      <c r="N124" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="365">
+  <mergeCells count="368">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4523,10 +4552,13 @@
     <mergeCell ref="B121:G121"/>
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
-    <mergeCell ref="K122:N122"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="I123:N123"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="K123:N123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="I124:N124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
